--- a/analysis/csv files/graphs_final/graph-1-reg.xlsx
+++ b/analysis/csv files/graphs_final/graph-1-reg.xlsx
@@ -414,13 +414,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.386450947366444</v>
+        <v>0.336733507504826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.210634758676941</v>
+        <v>0.204835484617244</v>
       </c>
       <c r="D2" t="n">
-        <v>0.175066150208415</v>
+        <v>0.196204299691062</v>
       </c>
     </row>
     <row r="3">
@@ -428,13 +428,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.177174119905613</v>
+        <v>0.166021204967147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.119494909957379</v>
+        <v>0.117181842517816</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140197311473835</v>
+        <v>0.143402588326138</v>
       </c>
     </row>
     <row r="4">
@@ -442,13 +442,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.350502145164638</v>
+        <v>0.342103762659368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.183251281892329</v>
+        <v>0.181210569956672</v>
       </c>
       <c r="D4" t="n">
-        <v>0.180073253390551</v>
+        <v>0.178276370319165</v>
       </c>
     </row>
     <row r="5">
@@ -456,13 +456,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.252080995141734</v>
+        <v>0.212118351299463</v>
       </c>
       <c r="C5" t="n">
-        <v>0.162984055959728</v>
+        <v>0.150190614567194</v>
       </c>
       <c r="D5" t="n">
-        <v>0.229942125662374</v>
+        <v>0.211872962214603</v>
       </c>
     </row>
     <row r="6">
@@ -470,13 +470,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.206248136386346</v>
+        <v>0.2055297480631</v>
       </c>
       <c r="C6" t="n">
-        <v>0.147534420153059</v>
+        <v>0.146749122586046</v>
       </c>
       <c r="D6" t="n">
-        <v>0.184818620770727</v>
+        <v>0.183879246793035</v>
       </c>
     </row>
     <row r="7">
@@ -484,13 +484,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.262702912059584</v>
+        <v>0.262697915499812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182711771400296</v>
+        <v>0.184486171636094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.203251006262525</v>
+        <v>0.203298016667895</v>
       </c>
     </row>
   </sheetData>
@@ -532,13 +532,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.177174119905613</v>
+        <v>0.166021204967147</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16096967589943</v>
+        <v>0.151054762015049</v>
       </c>
       <c r="E2" t="n">
-        <v>0.193378563911797</v>
+        <v>0.180987647919246</v>
       </c>
     </row>
     <row r="3">
@@ -549,13 +549,13 @@
         <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206248136386346</v>
+        <v>0.2055297480631</v>
       </c>
       <c r="D3" t="n">
-        <v>0.201594244216662</v>
+        <v>0.200964364076728</v>
       </c>
       <c r="E3" t="n">
-        <v>0.210902028556031</v>
+        <v>0.210095132049471</v>
       </c>
     </row>
     <row r="4">
@@ -566,13 +566,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.252080995141734</v>
+        <v>0.212118351299463</v>
       </c>
       <c r="D4" t="n">
-        <v>0.169154441462866</v>
+        <v>0.146229036403777</v>
       </c>
       <c r="E4" t="n">
-        <v>0.335007548820602</v>
+        <v>0.27800766619515</v>
       </c>
     </row>
     <row r="5">
@@ -583,47 +583,47 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.262702912059584</v>
+        <v>0.262697915499812</v>
       </c>
       <c r="D5" t="n">
-        <v>0.251278172724496</v>
+        <v>0.25127538776032</v>
       </c>
       <c r="E5" t="n">
-        <v>0.274127651394671</v>
+        <v>0.274120443239304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.350502145164638</v>
+        <v>0.336733507504826</v>
       </c>
       <c r="D6" t="n">
-        <v>0.337266048574498</v>
+        <v>0.294068432501586</v>
       </c>
       <c r="E6" t="n">
-        <v>0.363738241754779</v>
+        <v>0.379398582508065</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.386450947366444</v>
+        <v>0.342103762659368</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33367057021113</v>
+        <v>0.32933724909913</v>
       </c>
       <c r="E7" t="n">
-        <v>0.439231324521757</v>
+        <v>0.354870276219607</v>
       </c>
     </row>
     <row r="8">
@@ -634,13 +634,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>0.296669029862993</v>
+        <v>0.283203047484964</v>
       </c>
       <c r="D8" t="n">
-        <v>0.276924003813973</v>
+        <v>0.2647116464146</v>
       </c>
       <c r="E8" t="n">
-        <v>0.316414055912013</v>
+        <v>0.301694448555327</v>
       </c>
     </row>
     <row r="9">
@@ -651,13 +651,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>0.353782556539405</v>
+        <v>0.352278870649146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.34827605798673</v>
+        <v>0.346875497959219</v>
       </c>
       <c r="E9" t="n">
-        <v>0.359289055092081</v>
+        <v>0.357682243339072</v>
       </c>
     </row>
     <row r="10">
@@ -668,13 +668,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.415065051101462</v>
+        <v>0.362308965866657</v>
       </c>
       <c r="D10" t="n">
-        <v>0.321857730145606</v>
+        <v>0.285082829568468</v>
       </c>
       <c r="E10" t="n">
-        <v>0.508272372057318</v>
+        <v>0.439535102164847</v>
       </c>
     </row>
     <row r="11">
@@ -685,13 +685,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.44541468345988</v>
+        <v>0.447184087135905</v>
       </c>
       <c r="D11" t="n">
-        <v>0.432529780644032</v>
+        <v>0.434300740091735</v>
       </c>
       <c r="E11" t="n">
-        <v>0.458299586275729</v>
+        <v>0.460067434180076</v>
       </c>
     </row>
     <row r="12">
@@ -702,13 +702,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>0.533753427056968</v>
+        <v>0.52331433261604</v>
       </c>
       <c r="D12" t="n">
-        <v>0.519796463359784</v>
+        <v>0.509764427540884</v>
       </c>
       <c r="E12" t="n">
-        <v>0.547710390754151</v>
+        <v>0.536864237691196</v>
       </c>
     </row>
     <row r="13">
@@ -719,13 +719,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>0.597085706043385</v>
+        <v>0.54156899212207</v>
       </c>
       <c r="D13" t="n">
-        <v>0.543612279326475</v>
+        <v>0.496144656156584</v>
       </c>
       <c r="E13" t="n">
-        <v>0.650559132760294</v>
+        <v>0.586993328087555</v>
       </c>
     </row>
     <row r="14">
@@ -736,13 +736,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>0.436866341336828</v>
+        <v>0.426605635811101</v>
       </c>
       <c r="D14" t="n">
-        <v>0.415489480537177</v>
+        <v>0.406345988042121</v>
       </c>
       <c r="E14" t="n">
-        <v>0.458243202136478</v>
+        <v>0.446865283580082</v>
       </c>
     </row>
     <row r="15">
@@ -753,13 +753,13 @@
         <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>0.538601177310132</v>
+        <v>0.536158117442181</v>
       </c>
       <c r="D15" t="n">
-        <v>0.532871493018037</v>
+        <v>0.530527873940668</v>
       </c>
       <c r="E15" t="n">
-        <v>0.544330861602227</v>
+        <v>0.541788360943694</v>
       </c>
     </row>
     <row r="16">
@@ -770,13 +770,13 @@
         <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>0.645007176763836</v>
+        <v>0.574181928081261</v>
       </c>
       <c r="D16" t="n">
-        <v>0.554964267959435</v>
+        <v>0.494407460300752</v>
       </c>
       <c r="E16" t="n">
-        <v>0.735050085568236</v>
+        <v>0.653956395861769</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.648665689722405</v>
+        <v>0.650482103803801</v>
       </c>
       <c r="D17" t="n">
-        <v>0.636313552896827</v>
+        <v>0.638163188455606</v>
       </c>
       <c r="E17" t="n">
-        <v>0.661017826547984</v>
+        <v>0.662801019151996</v>
       </c>
     </row>
     <row r="18">
@@ -804,13 +804,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>0.713826680447519</v>
+        <v>0.701590702935205</v>
       </c>
       <c r="D18" t="n">
-        <v>0.701155997345137</v>
+        <v>0.689138902222035</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7264973635499</v>
+        <v>0.714042503648375</v>
       </c>
     </row>
     <row r="19">
@@ -821,13 +821,13 @@
         <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7721518562518</v>
+        <v>0.737773291813132</v>
       </c>
       <c r="D19" t="n">
-        <v>0.725406696370355</v>
+        <v>0.697450496154722</v>
       </c>
       <c r="E19" t="n">
-        <v>0.818897016133244</v>
+        <v>0.778096087471542</v>
       </c>
     </row>
   </sheetData>
